--- a/data/income_statement/1digit/total/E_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/E_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>E-Water supply; sewerage; waste management and remediation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>E-Water supply; sewerage; waste management and remediation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2761983.42472</v>
@@ -956,79 +862,89 @@
         <v>3825777.43239</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6002996.099589999</v>
+        <v>6002996.09959</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7066702.499340001</v>
+        <v>7066713.558579998</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7875854.002219999</v>
+        <v>7897003.19434</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9445684.403109999</v>
+        <v>9503352.289899999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9909328.912409998</v>
+        <v>10011933.96564</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11520160.43126</v>
+        <v>11610772.72078</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17338733.85441</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19675493.38045</v>
+        <v>19824751.82035</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>20495328.60752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20808761.48512</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26144849.842</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2653064.218460001</v>
+        <v>2653064.21846</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>3731996.15982</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5833122.63003</v>
+        <v>5833122.630030001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6834472.23428</v>
+        <v>6834483.293520001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7629289.13434</v>
+        <v>7650335.77949</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9119454.07687</v>
+        <v>9163229.46779</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9330256.193859998</v>
+        <v>9426777.07518</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11014583.72289</v>
+        <v>11103692.65843</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>16553706.89732</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>18440994.27784</v>
+        <v>18590001.5986</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18494386.93504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18624421.34443</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>23483726.476</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>68113.64010999998</v>
+        <v>68113.64010999999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>43069.28446</v>
@@ -1043,31 +959,36 @@
         <v>145409.63422</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>195843.19351</v>
+        <v>209703.33963</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>211757.85779</v>
+        <v>215440.2871900001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>307503.96205</v>
+        <v>307515.5260499999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>531339.67385</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>938763.23077</v>
+        <v>938950.5350999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1676317.56224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1858503.98465</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2367361.986</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>40805.56614999999</v>
+        <v>40805.56615000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>50711.98811</v>
@@ -1079,31 +1000,36 @@
         <v>102394.72992</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>101155.23366</v>
+        <v>101257.78063</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>130387.13273</v>
+        <v>130419.48248</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>367314.86076</v>
+        <v>369716.60327</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>198072.74632</v>
+        <v>199564.5362999999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>253687.28324</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>295735.87184</v>
+        <v>295799.68665</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>324624.11024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>325836.15604</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>293761.38</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>12281.48977</v>
@@ -1115,40 +1041,45 @@
         <v>19791.7909</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>27875.17473999999</v>
+        <v>27875.17474</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>40633.52048</v>
+        <v>40633.52048000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>68751.26671</v>
+        <v>68822.15502999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>49605.70951</v>
+        <v>49746.81947000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>288354.4627300001</v>
+        <v>288507.71804</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>70786.63381</v>
+        <v>70786.63380999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>145775.92155</v>
+        <v>145865.43266</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>179307.34103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>180140.00622</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>336679.578</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4452.95508</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8534.133039999999</v>
+        <v>8534.133040000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>13041.47343</v>
@@ -1157,55 +1088,60 @@
         <v>19248.76973</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>23925.99719000001</v>
+        <v>23925.99719</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>37808.14977</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>24894.43919</v>
+        <v>25029.78976</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>266427.87715</v>
+        <v>266489.65155</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>42193.60058</v>
+        <v>42193.60057999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>102110.27003</v>
+        <v>102199.78114</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>104769.64135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>105555.18578</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>256723.912</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7197.198380000001</v>
+        <v>7197.19838</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>6913.014750000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5694.99227</v>
+        <v>5694.992269999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7472.822000000001</v>
+        <v>7472.822</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>13536.68163</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>19253.26585</v>
+        <v>19324.15417</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>16157.73841</v>
+        <v>16163.4978</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12504.97617</v>
+        <v>12596.45708</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>16735.01647</v>
@@ -1214,16 +1150,21 @@
         <v>32204.27115</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>29256.9079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>29267.33616</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>34963.262</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>631.33631</v>
+        <v>631.3363099999999</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>2247.40042</v>
@@ -1253,13 +1194,18 @@
         <v>11461.38037</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>45280.79178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>45317.48428</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>44992.404</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2749701.93495</v>
@@ -1271,79 +1217,89 @@
         <v>5983204.30869</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7038827.324600002</v>
+        <v>7038838.38384</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7835220.48174</v>
+        <v>7856369.67386</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9376933.136399999</v>
+        <v>9434530.13487</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9859723.2029</v>
+        <v>9962187.14617</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11231805.96853</v>
+        <v>11322265.00274</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>17267947.2206</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>19529717.4589</v>
+        <v>19678886.38769</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>20316021.26649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20628621.4789</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25808170.264</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2313042.8994</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3270378.759949999</v>
+        <v>3270378.75995</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5193075.842939999</v>
+        <v>5193075.84294</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6149684.78263</v>
+        <v>6149728.8367</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6907143.103210001</v>
+        <v>6940757.542979999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8450038.841299998</v>
+        <v>8507683.593660001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8930700.95236</v>
+        <v>9037970.878080001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10164483.5499</v>
+        <v>10249606.56441</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>15583249.94325</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17215029.26312</v>
+        <v>17338643.16433</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17826860.25818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18150008.33723</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22741882.512</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>294127.27629</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>546123.1723499999</v>
+        <v>546123.17235</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>891800.73133</v>
@@ -1355,28 +1311,33 @@
         <v>1805090.98426</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2011789.30421</v>
+        <v>2022668.36277</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2295356.35557</v>
+        <v>2303799.814890001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2427212.94369</v>
+        <v>2490712.28908</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3335265.37436</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4928157.302490001</v>
+        <v>4948418.954929999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5542489.51642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5603446.874190001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7839947.796</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>727076.98112</v>
@@ -1388,34 +1349,39 @@
         <v>2243707.22367</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2489980.7853</v>
+        <v>2489980.785299999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2375846.21902</v>
+        <v>2376564.94682</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3380604.01364</v>
+        <v>3380616.96004</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2893504.364</v>
+        <v>2896016.91338</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3310696.8319</v>
+        <v>3324906.314220001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6613833.063259999</v>
+        <v>6613833.06326</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7225802.45971</v>
+        <v>7298101.669120001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7022680.98284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7334567.16058</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>9071569.903999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1278511.73488</v>
@@ -1427,34 +1393,39 @@
         <v>2055857.29655</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2530798.25232</v>
+        <v>2530842.30639</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2721858.41175</v>
+        <v>2754754.12372</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3024836.66022</v>
+        <v>3071464.772640001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3712694.13339</v>
+        <v>3808454.04801</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4383908.13853</v>
+        <v>4391318.19999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>5577705.325960001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4963586.622609999</v>
+        <v>4994512.51211</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5193036.201699999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5143290.74524</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5543360.099</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>13326.90711</v>
@@ -1466,73 +1437,83 @@
         <v>1710.59139</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4080.06494</v>
+        <v>4080.064939999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>4347.488179999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>32808.86323</v>
+        <v>32933.49821</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>29146.0994</v>
+        <v>29700.1018</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>42665.63578</v>
+        <v>42669.76112</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>56446.17967</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>97482.87831</v>
+        <v>97610.02817000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>68653.55722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>68703.55722</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>287004.713</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>436659.03555</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>537704.12423</v>
+        <v>537704.1242300002</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>790128.4657500001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>889142.54197</v>
+        <v>889109.54714</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>928077.37853</v>
+        <v>915612.1308799998</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>926894.2950999999</v>
+        <v>926846.5412100001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>929022.2505399999</v>
+        <v>924216.2680900001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1067322.41863</v>
+        <v>1072658.43833</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1684697.27735</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2314688.19578</v>
+        <v>2340243.22336</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2489161.008309999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2478613.14167</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3066287.752</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>247942.99546</v>
@@ -1541,40 +1522,45 @@
         <v>319332.5248799999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>443311.51112</v>
+        <v>443311.5111199999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>516939.11217</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>593084.87634</v>
+        <v>595197.87626</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>670156.28077</v>
+        <v>675815.0151800001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>727162.1944100001</v>
+        <v>739685.71704</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>827609.1726899999</v>
+        <v>830269.3153199999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1031672.6867</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1307542.82516</v>
+        <v>1311985.6062</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1544475.3603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1564945.40083</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1759369.368</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>441.7441900000001</v>
+        <v>441.74419</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>255.57855</v>
@@ -1589,28 +1575,33 @@
         <v>1606.68874</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1460.44186</v>
+        <v>1487.60589</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>605.83295</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>405.80881</v>
+        <v>405.8088100000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2973.5232</v>
+        <v>2973.523200000001</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>3726.090889999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4819.89781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4827.60516</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4752.897</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>42066.66088</v>
@@ -1628,28 +1619,33 @@
         <v>118925.66353</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>125763.86545</v>
+        <v>127198.27355</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>127096.14512</v>
+        <v>128387.81106</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>141222.11254</v>
+        <v>142220.56549</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>204365.82423</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>312434.4389100001</v>
+        <v>312529.42369</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>371925.0249900001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>376305.95459</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>382076.962</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>205434.59039</v>
@@ -1658,37 +1654,42 @@
         <v>262865.07521</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>337476.8178500001</v>
+        <v>337476.81785</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>401325.66608</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>472552.5240699999</v>
+        <v>474665.52399</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>542931.97346</v>
+        <v>547129.1357400001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>599460.2163399999</v>
+        <v>610692.0730299999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>685981.25134</v>
+        <v>687642.94102</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>824333.33927</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>991382.29536</v>
+        <v>995730.09162</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1167730.4375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1183811.84108</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1372539.509</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>188716.04009</v>
@@ -1700,40 +1701,45 @@
         <v>346816.95463</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>372203.4298</v>
+        <v>372170.43497</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>334992.50219</v>
+        <v>320414.25462</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>256738.01433</v>
+        <v>251031.52603</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>201860.05613</v>
+        <v>184530.55105</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>239713.24594</v>
+        <v>242389.12301</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>653024.5906499999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1007145.37062</v>
+        <v>1028257.61716</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>944685.6480099999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>913667.7408399996</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1306918.384</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>92207.85401000002</v>
+        <v>92207.85401</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>81204.49315000002</v>
+        <v>81204.49315000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>104455.46417</v>
@@ -1742,37 +1748,42 @@
         <v>125010.6105</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>179296.39885</v>
+        <v>180239.61178</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>206645.93528</v>
+        <v>209829.34614</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>359501.1665700001</v>
+        <v>371199.89816</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>332019.77364</v>
+        <v>332272.55801</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>463114.14318</v>
+        <v>463114.1431800001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1070551.88218</v>
+        <v>1082470.14645</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>927294.68063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>935447.3256699998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2077359.277</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4445.73714</v>
+        <v>4445.737139999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6234.20466</v>
+        <v>6234.204659999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>16422.22748</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>31528.80684</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>59634.696</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>149.71107</v>
@@ -1835,16 +1851,21 @@
         <v>41645.21190000001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>65602.19176</v>
+        <v>67922.22053000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>13583.45273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>15393.595</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>13311.256</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>17404.48399</v>
@@ -1859,31 +1880,36 @@
         <v>22521.28388</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>25244.86537</v>
+        <v>25372.16837</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30481.98887</v>
+        <v>31205.97141</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>56597.20333</v>
+        <v>61043.48388000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>75566.38205999999</v>
+        <v>76144.96600999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>95096.58421999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>100688.76446</v>
+        <v>101219.06604</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>90368.33034999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>91025.60654000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>118871.381</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3.26435</v>
@@ -1901,28 +1927,33 @@
         <v>23.5182</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>751.2035699999999</v>
+        <v>751.20357</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>301.6924300000001</v>
+        <v>301.69479</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>593.35414</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>725.0052900000001</v>
+        <v>725.0052899999999</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>542.44084</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>487.0300399999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>487.03004</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3487.738</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4375.595189999999</v>
@@ -1931,7 +1962,7 @@
         <v>11253.36335</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>8427.927529999999</v>
+        <v>8427.927530000001</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>10584.32763</v>
@@ -1940,13 +1971,13 @@
         <v>12949.34866</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>16693.01957</v>
+        <v>16695.82879</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>18976.72091</v>
+        <v>18976.89791</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7815.26831</v>
+        <v>7893.85985</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3472.67997</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>32466.97249</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>23367.449</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>453.5004999999999</v>
+        <v>453.5005</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>381.79824</v>
@@ -1982,7 +2018,7 @@
         <v>1361.70397</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>690.6946099999999</v>
+        <v>690.69461</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>3303.34147</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>1732.10767</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3366.091</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>52839.07598</v>
+        <v>52839.07597999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>37567.44434000001</v>
+        <v>37567.44434</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>42600.58933</v>
@@ -2015,31 +2056,36 @@
         <v>42360.4906</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>90450.00848999998</v>
+        <v>90450.00848999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>87053.85006</v>
+        <v>88686.80448000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>181866.02484</v>
+        <v>187685.55709</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>171012.05283</v>
+        <v>171037.55343</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>234995.61168</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>777790.84039</v>
+        <v>786875.20481</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>663118.68975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>669002.6960999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1642077.309</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>429.9956400000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>48.005</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>361.0075400000001</v>
+        <v>361.00754</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>95.71994000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>118.486</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12536.48579</v>
@@ -2132,73 +2188,83 @@
         <v>26005.55074</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>31852.16987</v>
+        <v>32668.0798</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>50012.34925999999</v>
+        <v>50836.01393999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>66262.51475999999</v>
+        <v>67695.25418999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>38381.87462</v>
+        <v>37951.9829</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>58250.53972</v>
+        <v>58250.53971999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>79646.36645</v>
+        <v>79629.93595000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>93483.57518000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>93284.79541000002</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>213076.866</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>65751.29779000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>44826.58831000001</v>
+        <v>44826.58831</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>91447.88027000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>71695.69455</v>
+        <v>71695.69454999999</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>146615.1947</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>197075.12669</v>
+        <v>197887.94428</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>252708.4344899999</v>
+        <v>256892.15149</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>259748.38969</v>
+        <v>259757.40305</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>335705.7245</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>987673.07331</v>
+        <v>1003767.82598</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>873539.34947</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>881140.6720000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1886027.421</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>260.31081</v>
+        <v>260.3108099999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>103.96422</v>
@@ -2216,7 +2282,7 @@
         <v>455.77389</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>345.94474</v>
+        <v>347.86902</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>87.81044</v>
@@ -2225,16 +2291,21 @@
         <v>214.10705</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>878.0747300000002</v>
+        <v>878.0747299999999</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>930.70081</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1923.388</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12677.50864</v>
@@ -2252,10 +2323,10 @@
         <v>10102.57341</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>76848.83181</v>
+        <v>76892.98178</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>21312.9151</v>
+        <v>21333.52106</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>40892.13922</v>
@@ -2267,13 +2338,18 @@
         <v>93366.8069</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>64407.5872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>64407.58720000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>47039.794</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>48.38569</v>
@@ -2291,7 +2367,7 @@
         <v>126.869</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>710.56381</v>
+        <v>710.5638100000001</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>91.53888999999999</v>
@@ -2308,20 +2384,25 @@
       <c r="M39" s="48" t="n">
         <v>11264.45208</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>689.831</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>44478.09080000001</v>
+        <v>44478.0908</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>29307.62294</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>52779.43708999998</v>
+        <v>52779.43709000001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>43148.25579000001</v>
@@ -2330,31 +2411,36 @@
         <v>116779.65165</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>90688.55495999998</v>
+        <v>91456.41875</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>200988.17498</v>
+        <v>205147.6923</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>202595.66824</v>
+        <v>202604.47703</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>267473.84306</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>852457.9022100001</v>
+        <v>868552.65486</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>712380.84679</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>719943.6179500001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1761138.337</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>403.1571700000001</v>
+        <v>403.15717</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>393.14352</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.006</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>256.29225</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1135.392</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7883.84468</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3811.719159999999</v>
+        <v>3811.71916</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>19314.948</v>
@@ -2447,73 +2543,83 @@
         <v>18069.68032</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>27871.23101</v>
+        <v>27872.03484</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>29950.12849</v>
+        <v>29951.79793</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>16006.18909</v>
+        <v>16006.39366</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>31689.31927</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>29557.34878</v>
+        <v>29557.3488</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>83906.32682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>83944.87818999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>74089.673</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>81589.06819000003</v>
+        <v>81589.06819000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>74084.65443</v>
+        <v>74084.65443000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>82941.78094999999</v>
+        <v>82941.78095000001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>114198.45505</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>131943.34974</v>
+        <v>132219.30624</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>169274.17336</v>
+        <v>170090.80174</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>236146.08773</v>
+        <v>237244.92795</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>300552.87535</v>
+        <v>301125.48114</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>382121.3735</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>590554.4491600001</v>
+        <v>591166.6495000002</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>601888.64795</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>604149.9991199999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>591980.524</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>66744.91213</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>59463.52623999999</v>
+        <v>59463.52624</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>68213.19589</v>
@@ -2522,31 +2628,36 @@
         <v>102994.00432</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>105483.43708</v>
+        <v>105756.33034</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>150463.09128</v>
+        <v>151279.71966</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>209067.57735</v>
+        <v>210166.41757</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>261104.22506</v>
+        <v>261672.08408</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>341562.41359</v>
+        <v>341562.4135900001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>503342.1639200001</v>
+        <v>503954.36426</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>529981.8381500001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>532038.8628799999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>548822.382</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>14844.15606</v>
@@ -2561,7 +2672,7 @@
         <v>11204.45073</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>26459.91266000001</v>
+        <v>26462.9759</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>18811.08208</v>
@@ -2570,7 +2681,7 @@
         <v>27078.51038</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>39448.65029</v>
+        <v>39453.39706</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>40558.95991000001</v>
@@ -2579,13 +2690,18 @@
         <v>87212.28524000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>71906.80980000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>72111.13624000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>43158.142</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>133583.52812</v>
@@ -2597,34 +2713,39 @@
         <v>276882.75758</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>311319.8907</v>
+        <v>311286.89587</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>235730.3566</v>
+        <v>221819.36546</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>97034.64956000002</v>
+        <v>92882.12615000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>72506.70047999998</v>
+        <v>61593.36977000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>11431.75454000001</v>
+        <v>13778.79683000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>398311.63583</v>
+        <v>398311.6358299999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>499469.73033</v>
+        <v>515793.28813</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>396552.3312200001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>363824.39539</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>906269.716</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>22756.14425</v>
@@ -2636,34 +2757,39 @@
         <v>47690.84326000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>47193.8671</v>
+        <v>47193.86710000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>59089.7178</v>
+        <v>85909.24703</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>81631.53966999998</v>
+        <v>108983.56701</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>90010.40444999999</v>
+        <v>92720.95288</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>111039.71438</v>
+        <v>111423.28692</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>132197.84229</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>116771.65191</v>
+        <v>117345.12438</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>199456.82961</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>200028.24062</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>251180.478</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1089.60041</v>
@@ -2675,34 +2801,39 @@
         <v>2075.85592</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>4480.678339999999</v>
+        <v>4480.67834</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1274.02613</v>
+        <v>28093.55536</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2779.08187</v>
+        <v>29598.6111</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>6729.60486</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>9319.098939999998</v>
+        <v>9319.098940000002</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1710.25523</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4952.68851</v>
+        <v>4952.688510000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4859.5415</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4859.83572</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8177.189</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>21666.54384</v>
@@ -2717,70 +2848,80 @@
         <v>42713.18876</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57815.69166999999</v>
+        <v>57815.69167</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>78852.45780000002</v>
+        <v>79384.95590999998</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>83280.79959</v>
+        <v>85991.34801999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>101720.61544</v>
+        <v>102104.18798</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>130487.58706</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>111818.9634</v>
+        <v>112392.43587</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>194597.28811</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>195168.4049</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>243003.289</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>123683.47112</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>35282.18803000001</v>
+        <v>35282.18803</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>175094.48062</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>43097.91063000001</v>
+        <v>43097.91063</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>82455.38927</v>
+        <v>82465.08047999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>110130.70553</v>
+        <v>111048.79751</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>85189.40635000002</v>
+        <v>85810.62454999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>152476.81723</v>
+        <v>152990.57712</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>116209.78164</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>248420.89858</v>
+        <v>249141.97774</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>228176.5056</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>230185.74946</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>284548.228</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>281.17016</v>
@@ -2801,10 +2942,10 @@
         <v>3982.59039</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8375.320009999999</v>
+        <v>8429.935019999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5649.624220000001</v>
+        <v>5649.62422</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3973.17144</v>
@@ -2813,13 +2954,18 @@
         <v>7209.02698</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>18523.38506</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18572.84098</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>22002.666</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>47739.88554</v>
@@ -2828,19 +2974,19 @@
         <v>7277.29473</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5014.281720000001</v>
+        <v>5014.28172</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>3432.196580000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5051.10559</v>
+        <v>5060.796790000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12321.84944</v>
+        <v>12331.54064</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4202.97741</v>
+        <v>4203.093279999999</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>11817.75509</v>
@@ -2852,91 +2998,106 @@
         <v>16036.01449</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>22812.09076</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>22819.85841</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>60827.665</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>75662.41541999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>27453.43167999999</v>
+        <v>27453.43168</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>165527.03153</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35353.82924</v>
+        <v>35353.82923999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>70720.00695000001</v>
+        <v>70720.00696</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>93826.2657</v>
+        <v>94734.66648000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>72611.10893</v>
+        <v>73177.59625</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>135009.43792</v>
+        <v>135523.19781</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>104836.29051</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>225175.85711</v>
+        <v>225896.93627</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>186841.02978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>188793.05007</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>201717.897</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>32656.20125000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>189663.03674</v>
+        <v>189663.0367400001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>149479.12022</v>
+        <v>149479.1202200001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>315415.8471700001</v>
+        <v>315382.85234</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>212364.68513</v>
+        <v>225263.53201</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>68535.4837</v>
+        <v>90816.89564999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>77327.69857999998</v>
+        <v>68503.69809999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-30005.34831</v>
+        <v>-27788.49337</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>414299.69648</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>367820.48366</v>
+        <v>383996.4347700001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>367832.65523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>333666.88655</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>872901.966</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>27813.49071</v>
@@ -2951,67 +3112,75 @@
         <v>63404.24464</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>87376.46484999996</v>
+        <v>87378.50843999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>64076.85597</v>
+        <v>65795.74299999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>59435.3635</v>
+        <v>60085.45075</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>62890.87147</v>
+        <v>63125.69836000002</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>119312.1839</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>160922.9648599999</v>
+        <v>162902.19045</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>168966.61768</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>167241.6339</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>256904.767</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4842.710539999993</v>
+        <v>4842.710539999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>156527.40838</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>94645.49058</v>
+        <v>94645.49058000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>252011.60253</v>
+        <v>251978.6077</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>124988.22028</v>
+        <v>137885.02357</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4458.627730000005</v>
+        <v>25021.15264999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>17892.33508</v>
+        <v>8418.247350000007</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-92896.21978000001</v>
+        <v>-90914.19173000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>294987.51258</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>206897.5188</v>
+        <v>221094.2443199999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>198866.03755</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>166425.25265</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>615997.199</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>669</v>
@@ -3041,31 +3213,34 @@
         <v>940</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1458</v>
+        <v>1466</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1565</v>
+        <v>1586</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1776</v>
+        <v>1789</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1971</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2057</v>
+        <v>2137</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2323</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>